--- a/03_plots_and_tables/long_CD_vs_CD1_table.xlsx
+++ b/03_plots_and_tables/long_CD_vs_CD1_table.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>faith_pd</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.008422294880715e-14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.012633442321072e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.138265264663792e-09</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.345663161659479e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>faith_pd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.296477586862812e-08</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.349245197184888e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9.739060215839928e-07</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.826073790469987e-06</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00015</v>
+        <v>0.0001527676424492374</v>
       </c>
       <c r="E6">
-        <v>0.00024</v>
+        <v>0.0002412120670251117</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00586</v>
+        <v>0.00586100874664172</v>
       </c>
       <c r="E7">
-        <v>0.00732</v>
+        <v>0.00732626093330215</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.01065</v>
+        <v>0.01064628192747416</v>
       </c>
       <c r="E8">
-        <v>0.01278</v>
+        <v>0.01277553831296899</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.22596</v>
+        <v>0.2259646038165578</v>
       </c>
       <c r="E9">
-        <v>0.2421</v>
+        <v>0.2421049326605976</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.42371</v>
+        <v>0.4237061775108104</v>
       </c>
       <c r="E10">
-        <v>0.43832</v>
+        <v>0.4383167353560107</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.6884400000000001</v>
+        <v>0.6884401201352719</v>
       </c>
       <c r="E11">
-        <v>0.6884400000000001</v>
+        <v>0.6884401201352719</v>
       </c>
     </row>
   </sheetData>
